--- a/Fase3_ValueBettingAnalysis/KNN_RFOutliers/PercentagePointDifference/30pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/KNN_RFOutliers/PercentagePointDifference/30pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE170"/>
+  <dimension ref="A1:AH170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>0.3549063858469454</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-37.4826768449509</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-87.59056643756766</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>84.34171119749885</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>0.3335012938194343</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-26.92880634696068</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-94.94992485049298</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>71.31427963010606</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +931,15 @@
       <c r="AE4" t="n">
         <v>-0.03314702857957538</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-48.71085280904382</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>243.6038706282688</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-40.86062950963619</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1043,15 @@
       <c r="AE5" t="n">
         <v>0.3373872997434192</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-36.68700808654987</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-97.62242543233047</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>65.69734005119355</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1155,15 @@
       <c r="AE6" t="n">
         <v>0.3109472366602748</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-23.02334459262861</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-89.35868924625316</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>72.4758921058651</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1267,15 @@
       <c r="AE7" t="n">
         <v>-0.1386287016058406</v>
       </c>
+      <c r="AF7" t="n">
+        <v>85.90865859965427</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-69.57064275212784</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-43.69300889651939</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1379,15 @@
       <c r="AE8" t="n">
         <v>-0.01017482722851363</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-42.47894743397364</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>309.0737983827779</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-18.77451782475431</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1413,6 +1491,15 @@
       <c r="AE9" t="n">
         <v>0.3215048175338171</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-13.15587418819899</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-98.66490317597481</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>77.37447392226508</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1516,6 +1603,15 @@
       <c r="AE10" t="n">
         <v>-0.1927242849622632</v>
       </c>
+      <c r="AF10" t="n">
+        <v>221.1367216929886</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-41.83485367698823</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-40.83518519146836</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1715,15 @@
       <c r="AE11" t="n">
         <v>0.3593662339753639</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-26.7715990663749</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-96.21141476013932</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>89.9463959357435</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1827,15 @@
       <c r="AE12" t="n">
         <v>-0.3993959626028886</v>
       </c>
+      <c r="AF12" t="n">
+        <v>286.9885927181368</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-39.2996560972739</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-67.41818389003539</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1825,6 +1939,15 @@
       <c r="AE13" t="n">
         <v>-0.1007939517319166</v>
       </c>
+      <c r="AF13" t="n">
+        <v>89.19378680668369</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-78.29257366719332</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-29.65891901635823</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1928,6 +2051,15 @@
       <c r="AE14" t="n">
         <v>0.3712440538200197</v>
       </c>
+      <c r="AF14" t="n">
+        <v>-45.917262406846</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-97.89025834059572</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>74.760813090247</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2031,6 +2163,15 @@
       <c r="AE15" t="n">
         <v>0.3101369877155002</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-24.99013666466308</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-90.96886311671484</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>64.90071681996824</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2134,6 +2275,15 @@
       <c r="AE16" t="n">
         <v>-0.07577800651940148</v>
       </c>
+      <c r="AF16" t="n">
+        <v>74.79695559381551</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-84.9628049621105</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-27.22348782930693</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2237,6 +2387,15 @@
       <c r="AE17" t="n">
         <v>0.3750562402682252</v>
       </c>
+      <c r="AF17" t="n">
+        <v>-38.02389314280709</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-92.27787481347727</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>91.15950284297141</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2340,6 +2499,15 @@
       <c r="AE18" t="n">
         <v>0.3247355944578197</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-30.2569909498241</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-99.14432218098526</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>59.86762647279661</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2443,6 +2611,15 @@
       <c r="AE19" t="n">
         <v>-0.1612017533021359</v>
       </c>
+      <c r="AF19" t="n">
+        <v>74.86265966761802</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-55.74329442456762</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-57.69119540690123</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2546,6 +2723,15 @@
       <c r="AE20" t="n">
         <v>-0.09602119505229559</v>
       </c>
+      <c r="AF20" t="n">
+        <v>92.04997888731596</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-95.11731097714457</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-30.36314904503983</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2649,6 +2835,15 @@
       <c r="AE21" t="n">
         <v>0.3264237843215602</v>
       </c>
+      <c r="AF21" t="n">
+        <v>-16.95231042707266</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-98.09157476087604</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>74.94986512313511</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2752,6 +2947,15 @@
       <c r="AE22" t="n">
         <v>0.4050009846844465</v>
       </c>
+      <c r="AF22" t="n">
+        <v>-54.56851517842885</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-98.65935233205832</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>83.15846244736281</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2855,6 +3059,15 @@
       <c r="AE23" t="n">
         <v>0.3229079643457118</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-35.11354596981248</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-96.4732552482313</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>63.86087555576339</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2958,6 +3171,15 @@
       <c r="AE24" t="n">
         <v>-0.1369508282008649</v>
       </c>
+      <c r="AF24" t="n">
+        <v>94.61872880489362</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-71.46894963978319</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-39.57464472687304</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3061,6 +3283,15 @@
       <c r="AE25" t="n">
         <v>-0.08536274746816086</v>
       </c>
+      <c r="AF25" t="n">
+        <v>101.3811856165923</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-91.0268194015248</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-22.7061939251189</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3164,6 +3395,15 @@
       <c r="AE26" t="n">
         <v>0.3007693949166932</v>
       </c>
+      <c r="AF26" t="n">
+        <v>-24.42126256799942</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-71.54253977872379</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>89.36726052594958</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3267,6 +3507,15 @@
       <c r="AE27" t="n">
         <v>0.3326209021848585</v>
       </c>
+      <c r="AF27" t="n">
+        <v>-16.58947610255912</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-95.20368890623043</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>92.58155537238834</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3370,6 +3619,15 @@
       <c r="AE28" t="n">
         <v>0.3395038022184884</v>
       </c>
+      <c r="AF28" t="n">
+        <v>-21.01386200987024</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-91.84047961957084</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>113.1394719352278</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3473,6 +3731,15 @@
       <c r="AE29" t="n">
         <v>-0.2230890816283518</v>
       </c>
+      <c r="AF29" t="n">
+        <v>158.0728500771979</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-34.97685637458666</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-40.90282167344809</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3576,6 +3843,15 @@
       <c r="AE30" t="n">
         <v>0.3299244959211355</v>
       </c>
+      <c r="AF30" t="n">
+        <v>-39.55195169175914</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-98.91350335275263</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>58.91941255303388</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3679,6 +3955,15 @@
       <c r="AE31" t="n">
         <v>-0.02337115093267606</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-41.76800685773291</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>266.7954278215929</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-35.81882508969745</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3782,6 +4067,15 @@
       <c r="AE32" t="n">
         <v>0.3583732166951851</v>
       </c>
+      <c r="AF32" t="n">
+        <v>-37.38712513487422</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-96.17648706718256</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>74.34922377824689</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3885,6 +4179,15 @@
       <c r="AE33" t="n">
         <v>0.304130564010466</v>
       </c>
+      <c r="AF33" t="n">
+        <v>-19.28128513642878</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-97.59229588372401</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>58.0053658649413</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3988,6 +4291,15 @@
       <c r="AE34" t="n">
         <v>-0.1646421018234918</v>
       </c>
+      <c r="AF34" t="n">
+        <v>93.19979163791014</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-77.65936937106798</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-53.83848284532052</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4091,6 +4403,15 @@
       <c r="AE35" t="n">
         <v>0.342578961871347</v>
       </c>
+      <c r="AF35" t="n">
+        <v>-19.13377967306782</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-95.90327825516385</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>90.86392571584446</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4194,6 +4515,15 @@
       <c r="AE36" t="n">
         <v>-0.0220670725363606</v>
       </c>
+      <c r="AF36" t="n">
+        <v>-43.00725075265166</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>155.1255176836784</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-19.76334747391698</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4297,6 +4627,15 @@
       <c r="AE37" t="n">
         <v>-0.01348058321062535</v>
       </c>
+      <c r="AF37" t="n">
+        <v>-41.25942720021303</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>214.5365014955823</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-18.39193058627841</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4400,6 +4739,15 @@
       <c r="AE38" t="n">
         <v>0.4717977678126872</v>
       </c>
+      <c r="AF38" t="n">
+        <v>-43.67759698329368</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-90.69867998855281</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>234.7040466907479</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4503,6 +4851,15 @@
       <c r="AE39" t="n">
         <v>0.3546641357384598</v>
       </c>
+      <c r="AF39" t="n">
+        <v>-36.68398069784086</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-96.19140291770285</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>78.24883421303362</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4606,6 +4963,15 @@
       <c r="AE40" t="n">
         <v>-0.09512901335031509</v>
       </c>
+      <c r="AF40" t="n">
+        <v>74.64936307954504</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-81.65868398459456</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-34.79329103422364</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4709,6 +5075,15 @@
       <c r="AE41" t="n">
         <v>-0.1549328242658314</v>
       </c>
+      <c r="AF41" t="n">
+        <v>172.0083071947989</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-90.61870614690854</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-31.62581571289244</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4812,6 +5187,15 @@
       <c r="AE42" t="n">
         <v>-0.2197534873916974</v>
       </c>
+      <c r="AF42" t="n">
+        <v>166.7344767075277</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-29.29749886087679</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-62.65333627641701</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4915,6 +5299,15 @@
       <c r="AE43" t="n">
         <v>-0.1050746528645301</v>
       </c>
+      <c r="AF43" t="n">
+        <v>86.69993189499154</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-76.52603318542101</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-31.82739896906358</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5018,6 +5411,15 @@
       <c r="AE44" t="n">
         <v>-0.1192466754289307</v>
       </c>
+      <c r="AF44" t="n">
+        <v>82.15468453547595</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-66.4117660034626</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-35.56175003032259</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5121,6 +5523,15 @@
       <c r="AE45" t="n">
         <v>0.3927222827997736</v>
       </c>
+      <c r="AF45" t="n">
+        <v>-58.82768824512109</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-99.05775278803787</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>76.63900156639509</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5224,6 +5635,15 @@
       <c r="AE46" t="n">
         <v>-0.01344407052797879</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-40.3652819561032</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>223.6979337064381</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-21.92743626608325</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5327,6 +5747,15 @@
       <c r="AE47" t="n">
         <v>-0.1561482635204688</v>
       </c>
+      <c r="AF47" t="n">
+        <v>130.3457862963265</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-91.04897649428774</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-39.1669949284875</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5430,6 +5859,15 @@
       <c r="AE48" t="n">
         <v>-0.0960355011370399</v>
       </c>
+      <c r="AF48" t="n">
+        <v>79.83802805258715</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-75.44598438084087</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-28.79794881061207</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5533,6 +5971,15 @@
       <c r="AE49" t="n">
         <v>0.3751349679260191</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-36.77756419498958</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-98.85662732344468</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>81.87164459703772</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5636,6 +6083,15 @@
       <c r="AE50" t="n">
         <v>-0.2108366175821631</v>
       </c>
+      <c r="AF50" t="n">
+        <v>97.47872513864725</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-58.31632780597869</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-64.45663564846423</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5739,6 +6195,15 @@
       <c r="AE51" t="n">
         <v>-0.1304716442061524</v>
       </c>
+      <c r="AF51" t="n">
+        <v>86.6143348001675</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-49.52934265467621</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-69.11411912310349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5842,6 +6307,15 @@
       <c r="AE52" t="n">
         <v>0.3361620605283867</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-17.92241310176749</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-98.26328599493912</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>87.63793170726218</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5945,6 +6419,15 @@
       <c r="AE53" t="n">
         <v>0.3613318924389419</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-28.63823659039015</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-96.53702158936601</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>86.29177346354837</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6048,6 +6531,15 @@
       <c r="AE54" t="n">
         <v>-0.1126196476818918</v>
       </c>
+      <c r="AF54" t="n">
+        <v>129.3790778310123</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-60.38561786940839</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-39.83307909019091</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6151,6 +6643,15 @@
       <c r="AE55" t="n">
         <v>0.3062197840405068</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-12.74726886626594</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-97.36326135540105</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>64.65519850991505</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6254,6 +6755,15 @@
       <c r="AE56" t="n">
         <v>-0.01749443041764106</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-40.02749831725802</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>218.0182578413614</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-23.18156459635726</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6357,6 +6867,15 @@
       <c r="AE57" t="n">
         <v>0.334164025850235</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-18.06043872365497</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-94.89266419933028</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>87.4855909918009</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6460,6 +6979,15 @@
       <c r="AE58" t="n">
         <v>-0.1641071913979944</v>
       </c>
+      <c r="AF58" t="n">
+        <v>97.13934321956469</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-78.43476298084387</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-52.00903661444332</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6563,6 +7091,15 @@
       <c r="AE59" t="n">
         <v>-0.1201228389797268</v>
       </c>
+      <c r="AF59" t="n">
+        <v>77.88454049291947</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-76.06009479523561</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-42.90800513904717</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6666,6 +7203,15 @@
       <c r="AE60" t="n">
         <v>-0.1147366843672411</v>
       </c>
+      <c r="AF60" t="n">
+        <v>73.00744400410454</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-80.59494293215627</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-44.28164057002336</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6769,6 +7315,15 @@
       <c r="AE61" t="n">
         <v>-0.1657553407513787</v>
       </c>
+      <c r="AF61" t="n">
+        <v>108.8063240164898</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>-68.94396516965632</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>-44.11038360483875</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6872,6 +7427,15 @@
       <c r="AE62" t="n">
         <v>-0.07092616120433493</v>
       </c>
+      <c r="AF62" t="n">
+        <v>94.57251640417485</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-87.55383668005761</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-18.64689983836424</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6975,6 +7539,15 @@
       <c r="AE63" t="n">
         <v>-0.155214836479489</v>
       </c>
+      <c r="AF63" t="n">
+        <v>100.1013163180384</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-69.99873039793954</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-42.42050519605595</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7078,6 +7651,15 @@
       <c r="AE64" t="n">
         <v>-0.1873723292207365</v>
       </c>
+      <c r="AF64" t="n">
+        <v>88.37413973992314</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-63.06460606566884</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-64.8323903676815</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7181,6 +7763,15 @@
       <c r="AE65" t="n">
         <v>-0.2431089509276775</v>
       </c>
+      <c r="AF65" t="n">
+        <v>84.12736482338329</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-22.05370139708527</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-69.49976700493598</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7284,6 +7875,15 @@
       <c r="AE66" t="n">
         <v>-0.1880542931345939</v>
       </c>
+      <c r="AF66" t="n">
+        <v>131.4765654929097</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-76.13496533500982</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-45.77652249466628</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7387,6 +7987,15 @@
       <c r="AE67" t="n">
         <v>0.3542089565582022</v>
       </c>
+      <c r="AF67" t="n">
+        <v>-30.2737265101813</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-98.14734704118713</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>78.86179604836242</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7490,6 +8099,15 @@
       <c r="AE68" t="n">
         <v>-0.1952473497254178</v>
       </c>
+      <c r="AF68" t="n">
+        <v>89.74300052571826</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>-67.75712939901076</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>-64.18598655111683</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7593,6 +8211,15 @@
       <c r="AE69" t="n">
         <v>-0.001865167210306086</v>
       </c>
+      <c r="AF69" t="n">
+        <v>-49.65036088355349</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>317.9375466845668</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>-3.163004911075423</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7696,6 +8323,15 @@
       <c r="AE70" t="n">
         <v>-0.04075140251887574</v>
       </c>
+      <c r="AF70" t="n">
+        <v>-41.65799327906593</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>198.0370422585518</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>-48.73347535799387</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7799,6 +8435,15 @@
       <c r="AE71" t="n">
         <v>0.3171568887235194</v>
       </c>
+      <c r="AF71" t="n">
+        <v>-29.77027009220582</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>-99.37353936525454</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>56.86175032423352</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7902,6 +8547,15 @@
       <c r="AE72" t="n">
         <v>-0.100583379432091</v>
       </c>
+      <c r="AF72" t="n">
+        <v>69.48425114543811</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>-78.7323494455423</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>-39.22551164026282</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8005,6 +8659,15 @@
       <c r="AE73" t="n">
         <v>-0.1449619603403707</v>
       </c>
+      <c r="AF73" t="n">
+        <v>-29.91781828529948</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>127.4114229019364</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>-80.49937531373457</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8108,6 +8771,15 @@
       <c r="AE74" t="n">
         <v>-0.08956794820689218</v>
       </c>
+      <c r="AF74" t="n">
+        <v>85.90553394816293</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>-80.69659402106208</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>-28.19559878414688</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8211,6 +8883,15 @@
       <c r="AE75" t="n">
         <v>-0.1310273392796951</v>
       </c>
+      <c r="AF75" t="n">
+        <v>100.361387362387</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>-84.34790742327786</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>-36.39144132457952</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8314,6 +8995,15 @@
       <c r="AE76" t="n">
         <v>-0.1703783852559581</v>
       </c>
+      <c r="AF76" t="n">
+        <v>84.38248869402491</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>-78.45329927357334</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>-66.1073643841554</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8417,6 +9107,15 @@
       <c r="AE77" t="n">
         <v>-0.03418662470311085</v>
       </c>
+      <c r="AF77" t="n">
+        <v>92.63617716212207</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>-93.071636389994</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>-8.829073219838152</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8520,6 +9219,15 @@
       <c r="AE78" t="n">
         <v>0.3747812916528704</v>
       </c>
+      <c r="AF78" t="n">
+        <v>-42.4626609729752</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>-91.82763006404537</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>86.71214352883496</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8623,6 +9331,15 @@
       <c r="AE79" t="n">
         <v>0.317708716294598</v>
       </c>
+      <c r="AF79" t="n">
+        <v>-10.66643535462759</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>-98.85194676653144</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>82.22829118572298</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8726,6 +9443,15 @@
       <c r="AE80" t="n">
         <v>0.3222413496086678</v>
       </c>
+      <c r="AF80" t="n">
+        <v>-32.64814514919752</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>-86.45121553175417</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>68.50585896827491</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8829,6 +9555,15 @@
       <c r="AE81" t="n">
         <v>-0.1091009241305255</v>
       </c>
+      <c r="AF81" t="n">
+        <v>73.92922322950783</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>-67.30492505216776</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>-36.80324297973998</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8932,6 +9667,15 @@
       <c r="AE82" t="n">
         <v>-0.03541557388426575</v>
       </c>
+      <c r="AF82" t="n">
+        <v>-36.11186042750182</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>206.4503678498435</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>-42.81288818278883</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9035,6 +9779,15 @@
       <c r="AE83" t="n">
         <v>0.005330024225606536</v>
       </c>
+      <c r="AF83" t="n">
+        <v>-44.58813125688547</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>271.1138349177211</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>8.494636908205617</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9138,6 +9891,15 @@
       <c r="AE84" t="n">
         <v>-0.1388419028129088</v>
       </c>
+      <c r="AF84" t="n">
+        <v>75.97861122822795</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>-84.10509053553993</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>-59.46571405897073</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9241,6 +10003,15 @@
       <c r="AE85" t="n">
         <v>-0.0377707687874565</v>
       </c>
+      <c r="AF85" t="n">
+        <v>72.8793709894575</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>-92.49113276451746</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>-12.79759717138205</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9344,6 +10115,15 @@
       <c r="AE86" t="n">
         <v>-0.08491051458238097</v>
       </c>
+      <c r="AF86" t="n">
+        <v>102.8795578447855</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>-91.7782600897791</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>-22.92075652573866</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9447,6 +10227,15 @@
       <c r="AE87" t="n">
         <v>0.3177738876516242</v>
       </c>
+      <c r="AF87" t="n">
+        <v>-25.87027601414699</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>-82.2103370128703</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>80.5650268105</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9550,6 +10339,15 @@
       <c r="AE88" t="n">
         <v>0.4259008538931937</v>
       </c>
+      <c r="AF88" t="n">
+        <v>-48.9439867359642</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>-97.3403852641151</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>102.5406107219458</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9653,6 +10451,15 @@
       <c r="AE89" t="n">
         <v>-0.04160519025274957</v>
       </c>
+      <c r="AF89" t="n">
+        <v>-44.04731115739018</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>234.8326903440326</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>-54.48955667807892</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9756,6 +10563,15 @@
       <c r="AE90" t="n">
         <v>-0.1360464359171103</v>
       </c>
+      <c r="AF90" t="n">
+        <v>99.39758582559348</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>-91.79089618122693</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>-44.08609387592223</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9859,6 +10675,15 @@
       <c r="AE91" t="n">
         <v>-0.1014645395315568</v>
       </c>
+      <c r="AF91" t="n">
+        <v>95.58834264713055</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>-81.02759831038816</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>-28.11132902104535</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9962,6 +10787,15 @@
       <c r="AE92" t="n">
         <v>-0.1034023466146477</v>
       </c>
+      <c r="AF92" t="n">
+        <v>86.27109784608095</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>-77.43832954468766</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>-32.07021066373813</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10065,6 +10899,15 @@
       <c r="AE93" t="n">
         <v>-0.07039270841474718</v>
       </c>
+      <c r="AF93" t="n">
+        <v>59.30723522861938</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>-82.23238616858592</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>-33.09548827840506</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10168,6 +11011,15 @@
       <c r="AE94" t="n">
         <v>-0.02452427370552515</v>
       </c>
+      <c r="AF94" t="n">
+        <v>-39.47687863004297</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>266.2082162856739</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>-29.28346121608616</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10271,6 +11123,15 @@
       <c r="AE95" t="n">
         <v>-0.2427971094156157</v>
       </c>
+      <c r="AF95" t="n">
+        <v>209.0035860642825</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>-25.62584170097358</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>-61.41358322352644</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10374,6 +11235,15 @@
       <c r="AE96" t="n">
         <v>0.3043442932807606</v>
       </c>
+      <c r="AF96" t="n">
+        <v>-22.07797830707098</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>-78.47759211722341</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>82.86289166386803</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10477,6 +11347,15 @@
       <c r="AE97" t="n">
         <v>-0.1685393011426829</v>
       </c>
+      <c r="AF97" t="n">
+        <v>153.1508781092785</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>-38.18142752334455</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>-52.00952358509413</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10580,6 +11459,15 @@
       <c r="AE98" t="n">
         <v>-0.08696048578162555</v>
       </c>
+      <c r="AF98" t="n">
+        <v>79.16570912082071</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>-81.12859331108027</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>-29.54967963453295</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10683,6 +11571,15 @@
       <c r="AE99" t="n">
         <v>0.3019897371126951</v>
       </c>
+      <c r="AF99" t="n">
+        <v>-22.47656029069324</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>-98.94842838404549</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>50.23919837339957</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10786,6 +11683,15 @@
       <c r="AE100" t="n">
         <v>0.3357053924110232</v>
       </c>
+      <c r="AF100" t="n">
+        <v>-35.9670765433932</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>-90.79961188290174</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>68.33883265219079</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10889,6 +11795,15 @@
       <c r="AE101" t="n">
         <v>-0.05559564557669544</v>
       </c>
+      <c r="AF101" t="n">
+        <v>61.3829372666939</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>-90.06580464363799</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>-26.2195531471334</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10992,6 +11907,15 @@
       <c r="AE102" t="n">
         <v>-0.2214683683713777</v>
       </c>
+      <c r="AF102" t="n">
+        <v>117.2960104733819</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>-22.29952606409309</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>-72.74991094563808</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11095,6 +12019,15 @@
       <c r="AE103" t="n">
         <v>-0.1109064445722635</v>
       </c>
+      <c r="AF103" t="n">
+        <v>65.07665642758398</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>-74.1455875948846</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>-43.98776252709732</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11198,6 +12131,15 @@
       <c r="AE104" t="n">
         <v>-0.1562504965344119</v>
       </c>
+      <c r="AF104" t="n">
+        <v>86.29918236939653</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>-67.12703569764543</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>-49.363382912993</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11301,6 +12243,15 @@
       <c r="AE105" t="n">
         <v>-0.1469754468081987</v>
       </c>
+      <c r="AF105" t="n">
+        <v>94.24948368440937</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>-76.82405014929846</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>-46.37502404288236</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11404,6 +12355,15 @@
       <c r="AE106" t="n">
         <v>-0.07090951677998503</v>
       </c>
+      <c r="AF106" t="n">
+        <v>64.21063237702748</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>-84.70073524702131</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>-29.55882245525209</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11507,6 +12467,15 @@
       <c r="AE107" t="n">
         <v>0.373438438891151</v>
       </c>
+      <c r="AF107" t="n">
+        <v>-31.93941388036998</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>-98.04145990359859</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>88.81530648547553</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11610,6 +12579,15 @@
       <c r="AE108" t="n">
         <v>-0.118821804765153</v>
       </c>
+      <c r="AF108" t="n">
+        <v>80.0524130357189</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>-86.22118972102993</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>-46.66404758423218</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11713,6 +12691,15 @@
       <c r="AE109" t="n">
         <v>0.3420241380369546</v>
       </c>
+      <c r="AF109" t="n">
+        <v>-22.05779152765928</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>-91.60183434129573</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>94.38394629489781</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11816,6 +12803,15 @@
       <c r="AE110" t="n">
         <v>0.3133295528987335</v>
       </c>
+      <c r="AF110" t="n">
+        <v>-12.66596126729722</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>-93.99096373883042</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>84.17466616278521</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11919,6 +12915,15 @@
       <c r="AE111" t="n">
         <v>0.3191904767338632</v>
       </c>
+      <c r="AF111" t="n">
+        <v>-28.77535084066261</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>-88.19584481152305</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>70.70370515368765</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12022,6 +13027,15 @@
       <c r="AE112" t="n">
         <v>-0.110455024882067</v>
       </c>
+      <c r="AF112" t="n">
+        <v>119.326972363167</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>-66.55238609971738</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>-25.84990594763513</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12125,6 +13139,15 @@
       <c r="AE113" t="n">
         <v>-0.1434855020451525</v>
       </c>
+      <c r="AF113" t="n">
+        <v>84.15036208567624</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>-64.06641575588222</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>-44.91369517423244</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12228,6 +13251,15 @@
       <c r="AE114" t="n">
         <v>0.35063103337305</v>
       </c>
+      <c r="AF114" t="n">
+        <v>-28.08382365284562</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>-98.4494712631509</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>76.81583120772008</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12331,6 +13363,15 @@
       <c r="AE115" t="n">
         <v>-0.1631498742592711</v>
       </c>
+      <c r="AF115" t="n">
+        <v>77.80483556976016</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>-60.59713168792189</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>-57.75993159811608</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12434,6 +13475,15 @@
       <c r="AE116" t="n">
         <v>-0.1437276351475323</v>
       </c>
+      <c r="AF116" t="n">
+        <v>103.961453192479</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>-83.59567175045048</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>-42.15635945966815</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12537,6 +13587,15 @@
       <c r="AE117" t="n">
         <v>-0.01180261447059981</v>
       </c>
+      <c r="AF117" t="n">
+        <v>-41.17120501911661</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>211.6215182930744</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>-16.78745405523187</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12640,6 +13699,15 @@
       <c r="AE118" t="n">
         <v>-0.1627260219434003</v>
       </c>
+      <c r="AF118" t="n">
+        <v>82.33659087666243</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>-58.38172275497233</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>-52.20347563696276</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12743,6 +13811,15 @@
       <c r="AE119" t="n">
         <v>-0.1024415558086982</v>
       </c>
+      <c r="AF119" t="n">
+        <v>64.37659515244619</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>-80.15215358454336</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>-47.17754179808747</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12846,6 +13923,15 @@
       <c r="AE120" t="n">
         <v>0.3543307033525477</v>
       </c>
+      <c r="AF120" t="n">
+        <v>-46.56892690296623</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>-98.59210077991879</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>67.0729052206275</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12949,6 +14035,15 @@
       <c r="AE121" t="n">
         <v>-0.1791742831314475</v>
       </c>
+      <c r="AF121" t="n">
+        <v>107.6433103525651</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>-89.9494393389659</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>-57.82799883402163</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13052,6 +14147,15 @@
       <c r="AE122" t="n">
         <v>-0.1229915073531828</v>
       </c>
+      <c r="AF122" t="n">
+        <v>69.1870317911563</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>-67.39323903475911</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>-45.05109912044297</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13155,6 +14259,15 @@
       <c r="AE123" t="n">
         <v>-0.1069699515759908</v>
       </c>
+      <c r="AF123" t="n">
+        <v>80.14761554615842</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>-83.40409119273102</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>-38.20261272527864</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13258,6 +14371,15 @@
       <c r="AE124" t="n">
         <v>0.3877267000955653</v>
       </c>
+      <c r="AF124" t="n">
+        <v>-29.02461866777223</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>-93.40946473102304</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>147.5105536067412</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13361,6 +14483,15 @@
       <c r="AE125" t="n">
         <v>-0.1772722629391866</v>
       </c>
+      <c r="AF125" t="n">
+        <v>127.1460396414469</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>-35.68230878754302</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>-56.68647715730975</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13464,6 +14595,15 @@
       <c r="AE126" t="n">
         <v>-0.1444167827413008</v>
       </c>
+      <c r="AF126" t="n">
+        <v>183.4490612309254</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>-92.6246993856892</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>-27.9279982049315</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13567,6 +14707,15 @@
       <c r="AE127" t="n">
         <v>-0.08513246701842914</v>
       </c>
+      <c r="AF127" t="n">
+        <v>99.88522094480989</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>-84.64669318689289</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>-22.56421247893732</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13670,6 +14819,15 @@
       <c r="AE128" t="n">
         <v>-0.07370444525831463</v>
       </c>
+      <c r="AF128" t="n">
+        <v>77.0166583001926</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>-82.92678504943554</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>-23.98780252893685</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13773,6 +14931,15 @@
       <c r="AE129" t="n">
         <v>-0.1442884609438507</v>
       </c>
+      <c r="AF129" t="n">
+        <v>72.27699319214933</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>-61.28560635248104</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>-54.51456021490664</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13876,6 +15043,15 @@
       <c r="AE130" t="n">
         <v>-0.1746673962764941</v>
       </c>
+      <c r="AF130" t="n">
+        <v>95.18231049937212</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>-70.35691126351274</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>-52.51954840832951</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13979,6 +15155,15 @@
       <c r="AE131" t="n">
         <v>-0.1131225768652688</v>
       </c>
+      <c r="AF131" t="n">
+        <v>91.06532519387932</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>-75.64858789176989</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>-32.721709580277</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14082,6 +15267,15 @@
       <c r="AE132" t="n">
         <v>0.4198037581876799</v>
       </c>
+      <c r="AF132" t="n">
+        <v>-59.45584859884564</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>-97.35980083521993</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>90.74517391536274</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14185,6 +15379,15 @@
       <c r="AE133" t="n">
         <v>0.3401222238379306</v>
       </c>
+      <c r="AF133" t="n">
+        <v>-25.82754118267993</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>-98.48697167537762</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>72.48847360048207</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14288,6 +15491,15 @@
       <c r="AE134" t="n">
         <v>-0.1230394789959646</v>
       </c>
+      <c r="AF134" t="n">
+        <v>83.31697769413745</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>-89.35834497180575</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>-46.01618339754518</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14391,6 +15603,15 @@
       <c r="AE135" t="n">
         <v>-0.115901406234783</v>
       </c>
+      <c r="AF135" t="n">
+        <v>83.12549228851812</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>-88.65037251147221</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>-42.27132207609387</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14494,6 +15715,15 @@
       <c r="AE136" t="n">
         <v>-0.130259993893382</v>
       </c>
+      <c r="AF136" t="n">
+        <v>90.46620111067497</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>-73.61682084493594</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>-38.6770198949976</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14597,6 +15827,15 @@
       <c r="AE137" t="n">
         <v>0.3336922360491679</v>
       </c>
+      <c r="AF137" t="n">
+        <v>-20.96869921640841</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>-92.52488263688667</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>86.43445021111017</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14700,6 +15939,15 @@
       <c r="AE138" t="n">
         <v>0.3392629725540948</v>
       </c>
+      <c r="AF138" t="n">
+        <v>-36.91922885689667</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>-97.37743626965147</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>65.74944870650386</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14803,6 +16051,15 @@
       <c r="AE139" t="n">
         <v>-0.1359556157641353</v>
       </c>
+      <c r="AF139" t="n">
+        <v>79.16001182288747</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>-70.72776955973539</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>-47.42575749290975</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14906,6 +16163,15 @@
       <c r="AE140" t="n">
         <v>0.3153765736768944</v>
       </c>
+      <c r="AF140" t="n">
+        <v>-18.46610595411024</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>-97.41517608902909</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>62.43813101584852</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15009,6 +16275,15 @@
       <c r="AE141" t="n">
         <v>-0.1625207838567511</v>
       </c>
+      <c r="AF141" t="n">
+        <v>88.43089085345952</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>-54.90649461706805</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>-46.7877851370047</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15112,6 +16387,15 @@
       <c r="AE142" t="n">
         <v>-0.1227387612979768</v>
       </c>
+      <c r="AF142" t="n">
+        <v>88.40293211203804</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>-76.82304157710466</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>-37.47141110995629</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15215,6 +16499,15 @@
       <c r="AE143" t="n">
         <v>0.3066606446718755</v>
       </c>
+      <c r="AF143" t="n">
+        <v>-14.74908818264039</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>-99.22865339970375</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>61.6700905367146</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15318,6 +16611,15 @@
       <c r="AE144" t="n">
         <v>-0.08734071960334971</v>
       </c>
+      <c r="AF144" t="n">
+        <v>103.0271276370853</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>-88.45255692937519</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>-22.30840262223326</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15421,6 +16723,15 @@
       <c r="AE145" t="n">
         <v>-0.03266675058396775</v>
       </c>
+      <c r="AF145" t="n">
+        <v>-36.15847469245039</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>183.3177523424364</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>-39.0215943523454</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15524,6 +16835,15 @@
       <c r="AE146" t="n">
         <v>-0.193356460423541</v>
       </c>
+      <c r="AF146" t="n">
+        <v>111.0656325879858</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>-81.70114946464417</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>-57.61014170634851</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15627,6 +16947,15 @@
       <c r="AE147" t="n">
         <v>0.3325343629841759</v>
       </c>
+      <c r="AF147" t="n">
+        <v>-40.01990737572728</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>-95.06812193725176</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>64.78272884179562</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15730,6 +17059,15 @@
       <c r="AE148" t="n">
         <v>-0.1496611019051733</v>
       </c>
+      <c r="AF148" t="n">
+        <v>83.03768831649839</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>-53.8945979752086</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>-44.72193230551737</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15833,6 +17171,15 @@
       <c r="AE149" t="n">
         <v>-0.1666212029892205</v>
       </c>
+      <c r="AF149" t="n">
+        <v>105.9727265056907</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>-81.37949147365504</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>-49.20244011054368</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15936,6 +17283,15 @@
       <c r="AE150" t="n">
         <v>-0.1390063998369432</v>
       </c>
+      <c r="AF150" t="n">
+        <v>158.2085046577043</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>-49.55743283989869</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>-41.17477285681058</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16039,6 +17395,15 @@
       <c r="AE151" t="n">
         <v>-0.1538148901233084</v>
       </c>
+      <c r="AF151" t="n">
+        <v>90.80364692189741</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>-79.81633840495796</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>-52.08344882550848</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16142,6 +17507,15 @@
       <c r="AE152" t="n">
         <v>-0.1875543124305136</v>
       </c>
+      <c r="AF152" t="n">
+        <v>95.58679486816133</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>-32.43189717832066</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>-83.96230978785933</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16245,6 +17619,15 @@
       <c r="AE153" t="n">
         <v>-0.1160438496382385</v>
       </c>
+      <c r="AF153" t="n">
+        <v>83.89427391319458</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>-73.94180134220608</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>-35.66437995245298</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16348,6 +17731,15 @@
       <c r="AE154" t="n">
         <v>-0.04996134075776054</v>
       </c>
+      <c r="AF154" t="n">
+        <v>83.2142855140864</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>-90.71557997881951</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>-14.81906653253797</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16451,6 +17843,15 @@
       <c r="AE155" t="n">
         <v>0.3573741685578424</v>
       </c>
+      <c r="AF155" t="n">
+        <v>-46.45610020308153</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>-97.98289451263092</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>67.91581226813675</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16554,6 +17955,15 @@
       <c r="AE156" t="n">
         <v>0.4048380088068175</v>
       </c>
+      <c r="AF156" t="n">
+        <v>-48.55405326624215</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>-95.97052348961377</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>91.44114061440872</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16657,6 +18067,15 @@
       <c r="AE157" t="n">
         <v>0.3134532457357871</v>
       </c>
+      <c r="AF157" t="n">
+        <v>-19.04713255443601</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>-98.51676422646597</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>61.79014876688795</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16760,6 +18179,15 @@
       <c r="AE158" t="n">
         <v>0.3505383356732786</v>
       </c>
+      <c r="AF158" t="n">
+        <v>-25.09004580153574</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>-97.32119175589973</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>84.30453448973887</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16863,6 +18291,15 @@
       <c r="AE159" t="n">
         <v>-0.1070035526772869</v>
       </c>
+      <c r="AF159" t="n">
+        <v>62.46667319119445</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>-77.16411174597123</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>-50.71679722331567</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16966,6 +18403,15 @@
       <c r="AE160" t="n">
         <v>0.4276264541503093</v>
       </c>
+      <c r="AF160" t="n">
+        <v>-49.10946300475737</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>-91.19605216793511</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>130.4552806361366</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17069,6 +18515,15 @@
       <c r="AE161" t="n">
         <v>-0.02271781920812067</v>
       </c>
+      <c r="AF161" t="n">
+        <v>-42.59741038490653</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>299.0604946700105</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>-40.58028032596511</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17172,6 +18627,15 @@
       <c r="AE162" t="n">
         <v>0.3318023553622782</v>
       </c>
+      <c r="AF162" t="n">
+        <v>-30.13198789635059</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>-98.85816547528886</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>62.51676359812074</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17275,6 +18739,15 @@
       <c r="AE163" t="n">
         <v>0.3030883315446667</v>
       </c>
+      <c r="AF163" t="n">
+        <v>-22.61184266214775</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>-93.83688104758114</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>57.92224250591033</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17378,6 +18851,15 @@
       <c r="AE164" t="n">
         <v>-0.1920934612088598</v>
       </c>
+      <c r="AF164" t="n">
+        <v>116.5607444277979</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>-66.06217041209305</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>-50.23898310632246</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17481,6 +18963,15 @@
       <c r="AE165" t="n">
         <v>-0.1058622045507537</v>
       </c>
+      <c r="AF165" t="n">
+        <v>80.82107150744223</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>-87.41719342400131</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>-36.98118193433399</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17584,6 +19075,15 @@
       <c r="AE166" t="n">
         <v>0.4579914770404929</v>
       </c>
+      <c r="AF166" t="n">
+        <v>-47.2694493887091</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>-89.982492504235</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>158.8284132442247</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17687,6 +19187,15 @@
       <c r="AE167" t="n">
         <v>0.3033734104724225</v>
       </c>
+      <c r="AF167" t="n">
+        <v>-35.88774504930067</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>-47.18497902515691</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>128.5828276842618</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17790,6 +19299,15 @@
       <c r="AE168" t="n">
         <v>-0.02403491024971827</v>
       </c>
+      <c r="AF168" t="n">
+        <v>-38.82721709826198</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>254.9451886800348</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>-46.76894431835387</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17893,6 +19411,15 @@
       <c r="AE169" t="n">
         <v>-0.2571087551750993</v>
       </c>
+      <c r="AF169" t="n">
+        <v>133.2300377920431</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>-26.15963615862605</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>-53.70333856764626</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17995,6 +19522,15 @@
       </c>
       <c r="AE170" t="n">
         <v>-0.04894417720118349</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>58.75476103206718</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>-93.7499989899555</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>-23.71989387728935</v>
       </c>
     </row>
   </sheetData>
